--- a/Assets/Tables/skill.xlsx
+++ b/Assets/Tables/skill.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\ProjectM\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\godd7\Desktop\Study\Github\ProjectM\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9919C6-348E-41F4-9F95-D1A9C266B9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F51E4E-A80E-433E-80A9-1BA93A06B906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="450" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="480" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Skill" sheetId="5" r:id="rId1"/>
-    <sheet name="~참고타입" sheetId="6" r:id="rId2"/>
+    <sheet name="skill" sheetId="5" r:id="rId1"/>
+    <sheet name="_참고타입" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,13 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="85">
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="86">
   <si>
     <t>Guardian</t>
   </si>
@@ -52,66 +46,9 @@
     <t>None</t>
   </si>
   <si>
-    <t>IconKey</t>
-  </si>
-  <si>
-    <t>SkillType</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
     <t>CastType</t>
   </si>
   <si>
-    <t>EnemyTargetType</t>
-  </si>
-  <si>
-    <t>EnemyTargetCount</t>
-  </si>
-  <si>
-    <t>AllyTargetType</t>
-  </si>
-  <si>
-    <t>AllyTargetCount</t>
-  </si>
-  <si>
-    <t>AttackRatio</t>
-  </si>
-  <si>
-    <t>HealRatio</t>
-  </si>
-  <si>
-    <t>Shield</t>
-  </si>
-  <si>
-    <t>Shield_ValueType</t>
-  </si>
-  <si>
-    <t>Draw</t>
-  </si>
-  <si>
-    <t>Draw_DeckType</t>
-  </si>
-  <si>
-    <t>Draw_TargetType</t>
-  </si>
-  <si>
-    <t>GainCost</t>
-  </si>
-  <si>
-    <t>Excluded</t>
-  </si>
-  <si>
-    <t>Disposable</t>
-  </si>
-  <si>
-    <t>AddCard</t>
-  </si>
-  <si>
-    <t>Shuffle_Deck</t>
-  </si>
-  <si>
     <t>스킬 1</t>
   </si>
   <si>
@@ -281,6 +218,94 @@
   </si>
   <si>
     <t>무작위 회복</t>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iconKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemyTargetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemyTargetCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allyTargetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allyTargetCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>healRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shield_ValueType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw_DeckType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw_TargetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gainCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excluded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disposable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuffle_Deck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -607,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCE6278-CDF7-4462-907D-C25F7EE30E92}">
   <dimension ref="A2:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -637,70 +662,70 @@
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="P2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="R2" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="S2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="T2" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="U2" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="V2" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -708,10 +733,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -765,10 +790,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="V3" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -776,10 +801,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -833,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="V4" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -844,10 +869,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -901,10 +926,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="V5" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -912,10 +937,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -969,10 +994,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="V6" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
@@ -980,10 +1005,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1037,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="V7" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -1048,10 +1073,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1105,10 +1130,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="V8" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -1116,10 +1141,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1173,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="V9" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -1184,10 +1209,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1241,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="V10" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -1252,10 +1277,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1309,10 +1334,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="V11" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -1320,10 +1345,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1377,10 +1402,10 @@
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="V12" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
@@ -1388,10 +1413,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1445,10 +1470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="V13" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -1456,10 +1481,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1513,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="V14" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
@@ -1524,10 +1549,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1581,10 +1606,10 @@
         <v>0</v>
       </c>
       <c r="U15" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="V15" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -1592,10 +1617,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1649,10 +1674,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="V16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
@@ -1660,10 +1685,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1717,10 +1742,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="V17" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
@@ -1728,7 +1753,7 @@
         <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1782,10 +1807,10 @@
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="V18" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
@@ -1793,7 +1818,7 @@
         <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1847,10 +1872,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="V19" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
@@ -1858,7 +1883,7 @@
         <v>201</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1912,10 +1937,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="V20" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
@@ -1923,7 +1948,7 @@
         <v>202</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1977,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="V21" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
@@ -1988,7 +2013,7 @@
         <v>301</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2042,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="V22" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -2053,7 +2078,7 @@
         <v>302</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2107,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="V23" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2143,30 +2168,30 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="I1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2175,30 +2200,30 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2207,30 +2232,30 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -2239,24 +2264,24 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -2265,18 +2290,18 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I5">
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -2285,18 +2310,18 @@
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="I6">
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>5</v>

--- a/Assets/Tables/skill.xlsx
+++ b/Assets/Tables/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\godd7\Desktop\Study\Github\ProjectM\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F51E4E-A80E-433E-80A9-1BA93A06B906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3714B268-8E90-4A13-8BE1-E9AFF89346CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="480" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -224,10 +224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iconKey</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,6 +301,10 @@
   </si>
   <si>
     <t>shuffle_Deck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameKey</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCE6278-CDF7-4462-907D-C25F7EE30E92}">
   <dimension ref="A2:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -665,67 +665,67 @@
         <v>64</v>
       </c>
       <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
         <v>65</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>66</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>67</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>68</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>69</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>70</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>71</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>72</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>73</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>74</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>75</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>76</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>77</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>78</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>79</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>80</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>81</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>82</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>83</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>84</v>
-      </c>
-      <c r="V2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">

--- a/Assets/Tables/skill.xlsx
+++ b/Assets/Tables/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\godd7\Desktop\Study\Github\ProjectM\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3714B268-8E90-4A13-8BE1-E9AFF89346CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66B4872-D865-4554-9355-26CD5A6EF4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="480" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Guardian</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>RedDragon</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
   <si>
     <t>스킬 2</t>
@@ -296,15 +293,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>addCard</t>
+    <t>nameKey</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>shuffle_Deck</t>
+    <t>*addCard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nameKey</t>
+    <t>*shuffle_Deck</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCE6278-CDF7-4462-907D-C25F7EE30E92}">
   <dimension ref="A2:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -662,64 +659,64 @@
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>65</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>66</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>67</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>68</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>69</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>70</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>71</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>72</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>73</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>74</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>75</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>76</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>77</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>78</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>79</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>80</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>81</v>
-      </c>
-      <c r="T2" t="s">
-        <v>82</v>
       </c>
       <c r="U2" t="s">
         <v>83</v>
@@ -789,11 +786,11 @@
       <c r="T3">
         <v>0</v>
       </c>
-      <c r="U3" t="s">
-        <v>9</v>
-      </c>
-      <c r="V3" t="s">
-        <v>9</v>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -801,11 +798,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
       <c r="D4">
         <v>0</v>
       </c>
@@ -857,11 +854,11 @@
       <c r="T4">
         <v>0</v>
       </c>
-      <c r="U4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V4" t="s">
-        <v>9</v>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -869,11 +866,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
       <c r="D5">
         <v>0</v>
       </c>
@@ -925,11 +922,11 @@
       <c r="T5">
         <v>0</v>
       </c>
-      <c r="U5" t="s">
-        <v>9</v>
-      </c>
-      <c r="V5" t="s">
-        <v>9</v>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -937,11 +934,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
       <c r="D6">
         <v>0</v>
       </c>
@@ -993,11 +990,11 @@
       <c r="T6">
         <v>0</v>
       </c>
-      <c r="U6" t="s">
-        <v>9</v>
-      </c>
-      <c r="V6" t="s">
-        <v>9</v>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
@@ -1005,11 +1002,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
       <c r="D7">
         <v>0</v>
       </c>
@@ -1061,11 +1058,11 @@
       <c r="T7">
         <v>0</v>
       </c>
-      <c r="U7" t="s">
-        <v>9</v>
-      </c>
-      <c r="V7" t="s">
-        <v>9</v>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -1073,11 +1070,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
       <c r="D8">
         <v>0</v>
       </c>
@@ -1129,11 +1126,11 @@
       <c r="T8">
         <v>0</v>
       </c>
-      <c r="U8" t="s">
-        <v>9</v>
-      </c>
-      <c r="V8" t="s">
-        <v>9</v>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -1141,11 +1138,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
       <c r="D9">
         <v>0</v>
       </c>
@@ -1197,11 +1194,11 @@
       <c r="T9">
         <v>0</v>
       </c>
-      <c r="U9" t="s">
-        <v>9</v>
-      </c>
-      <c r="V9" t="s">
-        <v>9</v>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -1209,11 +1206,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
       <c r="D10">
         <v>0</v>
       </c>
@@ -1265,11 +1262,11 @@
       <c r="T10">
         <v>0</v>
       </c>
-      <c r="U10" t="s">
-        <v>9</v>
-      </c>
-      <c r="V10" t="s">
-        <v>9</v>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -1277,11 +1274,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11">
         <v>0</v>
       </c>
@@ -1333,11 +1330,11 @@
       <c r="T11">
         <v>0</v>
       </c>
-      <c r="U11" t="s">
-        <v>9</v>
-      </c>
-      <c r="V11" t="s">
-        <v>9</v>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -1345,11 +1342,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
       <c r="D12">
         <v>0</v>
       </c>
@@ -1401,11 +1398,11 @@
       <c r="T12">
         <v>0</v>
       </c>
-      <c r="U12" t="s">
-        <v>9</v>
-      </c>
-      <c r="V12" t="s">
-        <v>9</v>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
@@ -1413,11 +1410,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
       <c r="D13">
         <v>0</v>
       </c>
@@ -1469,11 +1466,11 @@
       <c r="T13">
         <v>0</v>
       </c>
-      <c r="U13" t="s">
-        <v>9</v>
-      </c>
-      <c r="V13" t="s">
-        <v>9</v>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -1481,11 +1478,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
         <v>30</v>
       </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
       <c r="D14">
         <v>0</v>
       </c>
@@ -1537,11 +1534,11 @@
       <c r="T14">
         <v>0</v>
       </c>
-      <c r="U14" t="s">
-        <v>9</v>
-      </c>
-      <c r="V14" t="s">
-        <v>9</v>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
@@ -1549,11 +1546,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
       <c r="D15">
         <v>0</v>
       </c>
@@ -1605,11 +1602,11 @@
       <c r="T15">
         <v>0</v>
       </c>
-      <c r="U15" t="s">
-        <v>9</v>
-      </c>
-      <c r="V15" t="s">
-        <v>9</v>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -1617,11 +1614,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
         <v>34</v>
       </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
       <c r="D16">
         <v>0</v>
       </c>
@@ -1673,11 +1670,11 @@
       <c r="T16">
         <v>0</v>
       </c>
-      <c r="U16" t="s">
-        <v>9</v>
-      </c>
-      <c r="V16" t="s">
-        <v>9</v>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
@@ -1685,11 +1682,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
         <v>36</v>
       </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
       <c r="D17">
         <v>0</v>
       </c>
@@ -1741,11 +1738,11 @@
       <c r="T17">
         <v>0</v>
       </c>
-      <c r="U17" t="s">
-        <v>9</v>
-      </c>
-      <c r="V17" t="s">
-        <v>9</v>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
@@ -1753,7 +1750,7 @@
         <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1806,11 +1803,11 @@
       <c r="T18">
         <v>0</v>
       </c>
-      <c r="U18" t="s">
-        <v>9</v>
-      </c>
-      <c r="V18" t="s">
-        <v>9</v>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
@@ -1818,7 +1815,7 @@
         <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1871,11 +1868,11 @@
       <c r="T19">
         <v>0</v>
       </c>
-      <c r="U19" t="s">
-        <v>9</v>
-      </c>
-      <c r="V19" t="s">
-        <v>9</v>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
@@ -1883,7 +1880,7 @@
         <v>201</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1936,11 +1933,11 @@
       <c r="T20">
         <v>0</v>
       </c>
-      <c r="U20" t="s">
-        <v>9</v>
-      </c>
-      <c r="V20" t="s">
-        <v>9</v>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
@@ -1948,7 +1945,7 @@
         <v>202</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2001,11 +1998,11 @@
       <c r="T21">
         <v>0</v>
       </c>
-      <c r="U21" t="s">
-        <v>9</v>
-      </c>
-      <c r="V21" t="s">
-        <v>9</v>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
@@ -2013,7 +2010,7 @@
         <v>301</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2066,11 +2063,11 @@
       <c r="T22">
         <v>0</v>
       </c>
-      <c r="U22" t="s">
-        <v>9</v>
-      </c>
-      <c r="V22" t="s">
-        <v>9</v>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -2078,7 +2075,7 @@
         <v>302</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2131,16 +2128,17 @@
       <c r="T23">
         <v>0</v>
       </c>
-      <c r="U23" t="s">
-        <v>9</v>
-      </c>
-      <c r="V23" t="s">
-        <v>9</v>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2168,19 +2166,19 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
         <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
         <v>46</v>
-      </c>
-      <c r="I1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2191,28 +2189,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
         <v>48</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
         <v>49</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>50</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2223,7 +2221,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2232,24 +2230,24 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>53</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
         <v>54</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -2264,19 +2262,19 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -2290,13 +2288,13 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5">
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2310,13 +2308,13 @@
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I6">
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
